--- a/Data/Trade/SZ.002008.xlsx
+++ b/Data/Trade/SZ.002008.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>243</v>
+        <v>566</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43.62769</v>
+        <v>43.63</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -487,12 +487,12 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.73684210526315</v>
+        <v>74.85912417452991</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>244</v>
+        <v>567</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>44.0949875</v>
+        <v>44.09</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -512,12 +512,12 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>54.41158517595778</v>
+        <v>54.24151706319449</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>245</v>
+        <v>568</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>44.34355</v>
+        <v>44.34</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -537,12 +537,12 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>58.56280393488115</v>
+        <v>58.39059539699281</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>246</v>
+        <v>569</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>46.72975</v>
+        <v>46.73</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -562,12 +562,12 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>78.92960754792608</v>
+        <v>78.86767407224039</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>247</v>
+        <v>570</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>47.12745</v>
+        <v>47.13</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -587,12 +587,12 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>85.31360944070639</v>
+        <v>85.3309101700288</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>248</v>
+        <v>571</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>46.72975</v>
+        <v>46.73</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -612,12 +612,12 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>77.56342276172032</v>
+        <v>77.58136289197924</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>249</v>
+        <v>572</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>48.0918725</v>
+        <v>48.09</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -637,12 +637,12 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>90.94312252954339</v>
+        <v>90.932576204935</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>250</v>
+        <v>573</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>46.9385425</v>
+        <v>46.94</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -662,12 +662,12 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>74.31453068217951</v>
+        <v>74.32926423297511</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>251</v>
+        <v>574</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>46.3419925</v>
+        <v>46.34</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -687,12 +687,12 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.65490568519323</v>
+        <v>59.64378991858177</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>252</v>
+        <v>575</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>46.8391175</v>
+        <v>46.84</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -712,12 +712,12 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>55.71376725198567</v>
+        <v>55.72126959509953</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>253</v>
+        <v>576</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>47.7339425</v>
+        <v>47.73</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -737,12 +737,12 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>61.31019801465513</v>
+        <v>61.26305533147857</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>254</v>
+        <v>577</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>46.2226825</v>
+        <v>46.22</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -762,12 +762,12 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>36.16608506509689</v>
+        <v>36.10928704743043</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>255</v>
+        <v>578</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>48.95687</v>
+        <v>48.96</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -787,12 +787,12 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>54.31961058593993</v>
+        <v>54.34469170403847</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>256</v>
+        <v>579</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>49.7622125</v>
+        <v>49.76</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -812,12 +812,12 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>76.61054628015322</v>
+        <v>76.59300623035966</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>257</v>
+        <v>580</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>51.3033</v>
+        <v>51.3</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -837,12 +837,12 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>95.05200165814398</v>
+        <v>95.0049867997156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>258</v>
+        <v>581</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>50.209625</v>
+        <v>50.21</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -862,12 +862,12 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>78.89776204952716</v>
+        <v>78.88281211778877</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>259</v>
+        <v>582</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>47.6941725</v>
+        <v>47.69</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -887,12 +887,12 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>43.68772619269211</v>
+        <v>43.64144518584436</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>260</v>
+        <v>583</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>46.6800375</v>
+        <v>46.68</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -912,12 +912,12 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>15.93279309491884</v>
+        <v>15.91492545529714</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>261</v>
+        <v>584</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>44.045275</v>
+        <v>44.05</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -937,12 +937,12 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-9.090258422417619</v>
+        <v>-9.051545306366535</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>262</v>
+        <v>585</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>42.613555</v>
+        <v>42.61</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -962,12 +962,12 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-12.15499494031749</v>
+        <v>-12.15564297591905</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>263</v>
+        <v>586</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>44.1347575</v>
+        <v>44.13</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -987,12 +987,12 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.6413364177025187</v>
+        <v>-0.6711910098323557</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>264</v>
+        <v>587</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>45.1886625</v>
+        <v>45.19</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1012,12 +1012,12 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>14.34661296068767</v>
+        <v>14.34442579260627</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>265</v>
+        <v>588</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>44.2142975</v>
+        <v>44.21</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1037,12 +1037,12 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>16.27030461334662</v>
+        <v>16.24313180531534</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>266</v>
+        <v>589</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>44.482745</v>
+        <v>44.48</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -1062,12 +1062,12 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>19.78157594432678</v>
+        <v>19.75278798709432</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>267</v>
+        <v>590</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>41.937465</v>
+        <v>41.94</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -1087,12 +1087,12 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>9.749260693383626</v>
+        <v>9.759657604395038</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>268</v>
+        <v>591</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>43.249875</v>
+        <v>43.25</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -1112,12 +1112,12 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>21.05851347641999</v>
+        <v>21.0688999860774</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>269</v>
+        <v>592</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>47.5748625</v>
+        <v>47.57</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1137,12 +1137,12 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>81.29468167881808</v>
+        <v>81.24560275086351</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>270</v>
+        <v>593</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>51.323185</v>
+        <v>51.32</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -1162,12 +1162,12 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>106.7190745649703</v>
+        <v>106.6751910729891</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>271</v>
+        <v>594</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>50.5079</v>
+        <v>50.51</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1187,12 +1187,12 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>104.6522233509365</v>
+        <v>104.6488076914004</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>272</v>
+        <v>595</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>49.6627875</v>
+        <v>49.66</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -1212,12 +1212,12 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>95.48518691542299</v>
+        <v>95.47023046406292</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>273</v>
+        <v>596</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>48.0123325</v>
+        <v>48.01</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1237,12 +1237,12 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>78.14405651220959</v>
+        <v>78.12600286416043</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>274</v>
+        <v>597</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>48.20124</v>
+        <v>48.2</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -1262,12 +1262,12 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>69.55053427752432</v>
+        <v>69.53805983251291</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>275</v>
+        <v>598</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>45.675845</v>
+        <v>45.68</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1287,12 +1287,12 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>48.28112080478743</v>
+        <v>48.30652711871542</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>276</v>
+        <v>599</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>44.482745</v>
+        <v>44.48</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -1312,12 +1312,12 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>28.13485125581748</v>
+        <v>28.13252606072054</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>277</v>
+        <v>600</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>42.8621175</v>
+        <v>42.86</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -1337,12 +1337,12 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.016621897371607</v>
+        <v>1.002319807677452</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>278</v>
+        <v>601</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>44.3534925</v>
+        <v>44.35</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -1362,12 +1362,12 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3965182468508743</v>
+        <v>0.3659725120593293</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>279</v>
+        <v>602</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>43.607805</v>
+        <v>43.61</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -1387,12 +1387,12 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.471493750819221</v>
+        <v>-3.467171914321753</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>280</v>
+        <v>603</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>44.363435</v>
+        <v>44.36</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -1412,12 +1412,12 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>5.100419520533549</v>
+        <v>5.074590434824934</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>281</v>
+        <v>604</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>42.2854525</v>
+        <v>42.29</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -1437,12 +1437,12 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.458673966403957</v>
+        <v>0.4864101157940652</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>282</v>
+        <v>605</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>43.0410825</v>
+        <v>43.04</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -1462,12 +1462,12 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>9.798517301290516</v>
+        <v>9.80537914472243</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>283</v>
+        <v>606</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>41.3608</v>
+        <v>41.36</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -1487,12 +1487,12 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9252618120777925</v>
+        <v>0.9221300951539391</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>284</v>
+        <v>607</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>41.499995</v>
+        <v>41.5</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -1512,12 +1512,12 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>12.99081228058637</v>
+        <v>12.99061462535037</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>285</v>
+        <v>608</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>42.4843025</v>
+        <v>42.48</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -1537,12 +1537,12 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>43.46368350575263</v>
+        <v>43.39174978585645</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>286</v>
+        <v>609</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>43.03114</v>
+        <v>43.03</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -1562,12 +1562,12 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>67.53098053204785</v>
+        <v>67.47839161609312</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>287</v>
+        <v>610</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>41.0923525</v>
+        <v>41.09</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -1587,12 +1587,12 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>45.22399369059228</v>
+        <v>45.16250709442732</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>288</v>
+        <v>611</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>38.8055775</v>
+        <v>38.81</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -1612,12 +1612,12 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>19.35910598043451</v>
+        <v>19.39189741707791</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>289</v>
+        <v>612</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>39.272875</v>
+        <v>39.27</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -1637,12 +1637,12 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>18.41974387473893</v>
+        <v>18.4034643565646</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>290</v>
+        <v>613</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>39.4220125</v>
+        <v>39.42</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -1662,12 +1662,12 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>21.08153359639035</v>
+        <v>21.05032837270674</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>291</v>
+        <v>614</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>40.08816</v>
+        <v>40.09</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -1687,12 +1687,12 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>31.95429659962176</v>
+        <v>31.96911039872472</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>292</v>
+        <v>615</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>39.1237375</v>
+        <v>39.12</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -1712,12 +1712,12 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>25.2498801620752</v>
+        <v>25.20636726533922</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>293</v>
+        <v>616</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>39.630805</v>
+        <v>39.63</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -1737,12 +1737,12 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>29.39725722585158</v>
+        <v>29.36819294791012</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>294</v>
+        <v>617</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>39.9191375</v>
+        <v>39.92</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -1762,12 +1762,12 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>35.73932552222603</v>
+        <v>35.74291379411105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>295</v>
+        <v>618</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>39.2231625</v>
+        <v>39.22</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -1787,12 +1787,12 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>29.02895507499937</v>
+        <v>28.98719498938145</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>296</v>
+        <v>619</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>39.9986775</v>
+        <v>40</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -1812,12 +1812,12 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>66.74419417657991</v>
+        <v>66.767985239598</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>297</v>
+        <v>620</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>41.0923525</v>
+        <v>41.09</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -1837,12 +1837,12 @@
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>90.05500570318044</v>
+        <v>90.02183726390163</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>298</v>
+        <v>621</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>41.301145</v>
+        <v>41.3</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -1862,12 +1862,12 @@
         <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>103.0282893814679</v>
+        <v>102.9903436774446</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>299</v>
+        <v>622</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>41.499995</v>
+        <v>41.5</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -1887,12 +1887,12 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>98.93534270171878</v>
+        <v>98.92159772135912</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>300</v>
+        <v>623</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>42.11643</v>
+        <v>42.12</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
@@ -1912,12 +1912,12 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>105.464428466853</v>
+        <v>105.53794618361</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>301</v>
+        <v>624</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>42.0667175</v>
+        <v>42.07</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -1937,12 +1937,12 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>104.9514392875084</v>
+        <v>105.0602507249475</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>302</v>
+        <v>625</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>41.87781</v>
+        <v>41.88</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
@@ -1962,12 +1962,12 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>99.00602013746118</v>
+        <v>99.10531447890838</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>303</v>
+        <v>626</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>41.2514325</v>
+        <v>41.25</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -1987,12 +1987,12 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>81.53976470529372</v>
+        <v>81.55419830326395</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>304</v>
+        <v>627</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>42.11643</v>
+        <v>42.12</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
@@ -2012,12 +2012,12 @@
         <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>90.37411937898318</v>
+        <v>90.45012711704427</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>305</v>
+        <v>628</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>41.142065</v>
+        <v>41.14</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -2037,12 +2037,12 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>66.09452390558099</v>
+        <v>66.06959210962842</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>306</v>
+        <v>629</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>40.76425</v>
+        <v>40.76</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
@@ -2062,12 +2062,12 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>19.90700475485903</v>
+        <v>19.71349625219773</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>307</v>
+        <v>630</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>39.392185</v>
+        <v>39.39</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
@@ -2087,12 +2087,12 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5067311036784048</v>
+        <v>-0.6531589129668163</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>308</v>
+        <v>631</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>39.7401725</v>
+        <v>39.74</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
@@ -2112,12 +2112,12 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4380456107416961</v>
+        <v>-0.5093829463585138</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>309</v>
+        <v>632</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>40.20747</v>
+        <v>40.21</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
@@ -2137,12 +2137,12 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>12.49332141727844</v>
+        <v>12.52296556337863</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>310</v>
+        <v>633</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>41.2514325</v>
+        <v>41.25</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
@@ -2162,12 +2162,12 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>47.60285996441705</v>
+        <v>47.59159494555581</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>311</v>
+        <v>634</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>41.2912025</v>
+        <v>41.29</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
@@ -2187,12 +2187,12 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>68.18265125967221</v>
+        <v>68.15425168439204</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>312</v>
+        <v>635</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>42.9516</v>
+        <v>42.95</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
@@ -2212,12 +2212,12 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>97.49961656805552</v>
+        <v>97.4612802364542</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>313</v>
+        <v>636</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>42.63344</v>
+        <v>42.63</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
@@ -2237,12 +2237,12 @@
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>98.78600512041724</v>
+        <v>98.71312606395412</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>314</v>
+        <v>637</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>42.35505</v>
+        <v>42.36</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
@@ -2262,12 +2262,12 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>92.69553114159442</v>
+        <v>92.75487512865621</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>315</v>
+        <v>638</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>41.95735</v>
+        <v>41.96</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -2287,12 +2287,12 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>81.19404125290555</v>
+        <v>81.27742963777752</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>316</v>
+        <v>639</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>42.35505</v>
+        <v>42.36</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
@@ -2312,12 +2312,12 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>79.35898942776737</v>
+        <v>79.5019694438792</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>317</v>
+        <v>640</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>41.4701675</v>
+        <v>41.47</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
@@ -2337,12 +2337,12 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>60.36308319230193</v>
+        <v>60.42909531486734</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>318</v>
+        <v>641</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>39.869425</v>
+        <v>39.87</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
@@ -2362,12 +2362,12 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>15.20448216254691</v>
+        <v>15.24386143465588</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>319</v>
+        <v>642</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>40.44609</v>
+        <v>40.45</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
@@ -2387,12 +2387,12 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>6.134507606985125</v>
+        <v>6.229340758423916</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>320</v>
+        <v>643</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>40.465975</v>
+        <v>40.47</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
@@ -2412,12 +2412,12 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>4.16233799891161</v>
+        <v>4.285406808046346</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>321</v>
+        <v>644</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>39.9390225</v>
+        <v>39.94</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
@@ -2437,12 +2437,12 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>5.555204019863098</v>
+        <v>5.622053702726475</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>322</v>
+        <v>645</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>36.9960425</v>
+        <v>37</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
@@ -2462,12 +2462,12 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.439581734943062</v>
+        <v>-6.370644373195745</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>323</v>
+        <v>646</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>35.812885</v>
+        <v>35.81</v>
       </c>
       <c r="D82" t="b">
         <v>1</v>
@@ -2487,12 +2487,12 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>-12.85288844673926</v>
+        <v>-12.86423946047493</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>324</v>
+        <v>647</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>34.52036</v>
+        <v>34.52</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
@@ -2512,12 +2512,12 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>-9.660351788098545</v>
+        <v>-9.682406929457258</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>325</v>
+        <v>648</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>34.7490375</v>
+        <v>34.75</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
@@ -2537,12 +2537,12 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.518075115692014</v>
+        <v>-2.531621098419699</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>326</v>
+        <v>649</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>34.580015</v>
+        <v>34.58</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
@@ -2562,12 +2562,12 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>2.27804753800137</v>
+        <v>2.262651515415456</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>327</v>
+        <v>650</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2587,12 +2587,12 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>3.065511118468606</v>
+        <v>3.051134146323726</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>328</v>
+        <v>651</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>16.82840149424961</v>
+        <v>16.81607487476129</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>329</v>
+        <v>652</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2637,12 +2637,12 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>28.06629689731579</v>
+        <v>28.05625117006242</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>330</v>
+        <v>653</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2662,12 +2662,12 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>32.70614814480091</v>
+        <v>32.69823233934677</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>331</v>
+        <v>654</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2687,12 +2687,12 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>68.00120814541691</v>
+        <v>67.99511850581291</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>332</v>
+        <v>655</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2712,12 +2712,12 @@
         <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>91.9563441730776</v>
+        <v>91.95174278936298</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>333</v>
+        <v>656</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2737,12 +2737,12 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>83.96073504818878</v>
+        <v>83.95730637639329</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>334</v>
+        <v>657</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2762,12 +2762,12 @@
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>87.65055286418804</v>
+        <v>87.64802636122276</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>335</v>
+        <v>658</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2787,12 +2787,12 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>103.0649718676756</v>
+        <v>103.0631270511865</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>336</v>
+        <v>659</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2812,12 +2812,12 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>87.28276977153213</v>
+        <v>87.28143290642022</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>337</v>
+        <v>660</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2837,12 +2837,12 @@
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>96.4340344029429</v>
+        <v>96.43307183456659</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>338</v>
+        <v>661</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2862,12 +2862,12 @@
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>101.2517782114856</v>
+        <v>101.2510889492558</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>339</v>
+        <v>662</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2887,12 +2887,12 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>100.9985004366212</v>
+        <v>100.998009228482</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>340</v>
+        <v>663</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2912,12 +2912,12 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>92.72630331659354</v>
+        <v>92.72595471117688</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>341</v>
+        <v>664</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2937,12 +2937,12 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>82.52452402800606</v>
+        <v>82.52427753551228</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>342</v>
+        <v>665</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2962,12 +2962,12 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>70.80087614775991</v>
+        <v>70.80070242684229</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>343</v>
+        <v>666</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2987,12 +2987,12 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>69.83629920302536</v>
+        <v>69.83617712735466</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>344</v>
+        <v>667</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3012,12 +3012,12 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>78.03079160741936</v>
+        <v>78.03070604915513</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>345</v>
+        <v>668</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3037,12 +3037,12 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>67.6716116107925</v>
+        <v>67.6715517889605</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>346</v>
+        <v>669</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3062,12 +3062,12 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>47.60233570940898</v>
+        <v>47.60229397286153</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>347</v>
+        <v>670</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3087,12 +3087,12 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>48.24359730228122</v>
+        <v>48.24356824103219</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>348</v>
+        <v>671</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3112,12 +3112,12 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>33.00947259568537</v>
+        <v>33.00945239692996</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>349</v>
+        <v>672</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3137,12 +3137,12 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>5.195590409458987</v>
+        <v>5.19557639389582</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>350</v>
+        <v>673</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3162,12 +3162,12 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>-7.419348755840673</v>
+        <v>-7.419358466033614</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>351</v>
+        <v>674</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3187,12 +3187,12 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>18.80434107787288</v>
+        <v>18.80433436008813</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>352</v>
+        <v>675</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3212,12 +3212,12 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>58.03688964994721</v>
+        <v>58.03688500854217</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>353</v>
+        <v>676</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3237,12 +3237,12 @@
         <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>84.16057615491594</v>
+        <v>84.16057295205802</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>354</v>
+        <v>677</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3262,12 +3262,12 @@
         <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>86.58429391111447</v>
+        <v>86.58429170348391</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>355</v>
+        <v>678</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3287,12 +3287,12 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>102.3999990604977</v>
+        <v>102.3999975404827</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>356</v>
+        <v>679</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3312,12 +3312,12 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>99.85944471451404</v>
+        <v>99.85944366899653</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>357</v>
+        <v>680</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3337,12 +3337,12 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>90.97120473600413</v>
+        <v>90.97120401754296</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>358</v>
+        <v>681</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3362,12 +3362,12 @@
         <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>92.84932311343786</v>
+        <v>92.84932262016409</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>359</v>
+        <v>682</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3387,12 +3387,12 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>104.0247279305538</v>
+        <v>104.0247275921716</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>360</v>
+        <v>683</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3412,12 +3412,12 @@
         <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>108.2974689434081</v>
+        <v>108.2974687114645</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>361</v>
+        <v>684</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3437,12 +3437,12 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>56.92724160812671</v>
+        <v>56.92724144926069</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>362</v>
+        <v>685</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3462,12 +3462,12 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>34.90882752959024</v>
+        <v>34.90882742085495</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>363</v>
+        <v>686</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3487,12 +3487,12 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>16.86700272540409</v>
+        <v>16.86700265103082</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>364</v>
+        <v>687</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3512,12 +3512,12 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>13.16958870489599</v>
+        <v>13.16958865405844</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>365</v>
+        <v>688</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3537,12 +3537,12 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>1.527652415439306</v>
+        <v>1.527652380710705</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>366</v>
+        <v>689</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3562,12 +3562,12 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>32.85038601840971</v>
+        <v>32.85038599469935</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>367</v>
+        <v>690</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3587,12 +3587,12 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>42.39933583990667</v>
+        <v>42.39933582372778</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>368</v>
+        <v>691</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3612,12 +3612,12 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>46.37672066724899</v>
+        <v>46.37672065621508</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>369</v>
+        <v>692</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -3637,12 +3637,12 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>57.38036718304015</v>
+        <v>57.38036717551891</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>370</v>
+        <v>693</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3662,12 +3662,12 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>61.04931167954803</v>
+        <v>61.04931167442365</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>371</v>
+        <v>694</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -3687,12 +3687,12 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>53.69051952828298</v>
+        <v>53.69051952479323</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>372</v>
+        <v>695</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3712,12 +3712,12 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>41.00467291258452</v>
+        <v>41.00467291020907</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>373</v>
+        <v>696</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3737,12 +3737,12 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>18.53607586205118</v>
+        <v>18.53607586043489</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>374</v>
+        <v>697</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3762,12 +3762,12 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>15.33166044420575</v>
+        <v>15.33166044310646</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>375</v>
+        <v>698</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3787,12 +3787,12 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>23.6984618490694</v>
+        <v>23.69846184832203</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>376</v>
+        <v>699</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>19.31002161440622</v>
+        <v>19.3100216138983</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>377</v>
+        <v>700</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -3837,12 +3837,12 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>1.617323504179431</v>
+        <v>1.617323503834349</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>378</v>
+        <v>701</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -3862,12 +3862,12 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>0.5263241330686483</v>
+        <v>0.52632413283429</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>379</v>
+        <v>702</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -3887,12 +3887,12 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>18.88126916273665</v>
+        <v>18.88126916257755</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>380</v>
+        <v>703</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -3912,12 +3912,12 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>10.46326566861907</v>
+        <v>10.46326566851109</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>381</v>
+        <v>704</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -3937,12 +3937,12 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>48.54750629251706</v>
+        <v>48.54750629244379</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>382</v>
+        <v>705</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -3962,12 +3962,12 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>62.65570781973641</v>
+        <v>62.65570781968672</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>383</v>
+        <v>706</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -3987,12 +3987,12 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>87.78674481151559</v>
+        <v>87.78674481148188</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>384</v>
+        <v>707</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4012,12 +4012,12 @@
         <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>87.81480971291661</v>
+        <v>87.81480971289376</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>385</v>
+        <v>708</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4037,12 +4037,12 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>95.94447805848101</v>
+        <v>95.94447805846552</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>386</v>
+        <v>709</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4062,12 +4062,12 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>58.17252874662999</v>
+        <v>58.17252874661951</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>387</v>
+        <v>710</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4087,12 +4087,12 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>47.41735564906419</v>
+        <v>47.41735564905709</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>388</v>
+        <v>711</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4112,12 +4112,12 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>43.48784628559629</v>
+        <v>43.48784628559149</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>389</v>
+        <v>712</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4137,12 +4137,12 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>43.65889716064514</v>
+        <v>43.6588971606419</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>390</v>
+        <v>713</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4162,12 +4162,12 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>35.63374223389826</v>
+        <v>35.63374223389609</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>391</v>
+        <v>714</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4187,12 +4187,12 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>75.24987201755722</v>
+        <v>75.24987201755575</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>392</v>
+        <v>715</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4212,12 +4212,12 @@
         <v>1</v>
       </c>
       <c r="G151" t="n">
-        <v>101.2636206871315</v>
+        <v>101.2636206871305</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>393</v>
+        <v>716</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -4237,12 +4237,12 @@
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>96.44877335281652</v>
+        <v>96.44877335281586</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>394</v>
+        <v>717</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -4262,12 +4262,12 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>73.23119972058583</v>
+        <v>73.23119972058541</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>395</v>
+        <v>718</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -4287,12 +4287,12 @@
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>59.85881147064043</v>
+        <v>59.85881147064012</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>396</v>
+        <v>719</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -4312,12 +4312,12 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>54.88162556005663</v>
+        <v>54.88162556005643</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>397</v>
+        <v>720</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -4337,12 +4337,12 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>65.09269893311834</v>
+        <v>65.0926989331182</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>398</v>
+        <v>721</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -4362,12 +4362,12 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>80.9735811826711</v>
+        <v>80.97358118267098</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>399</v>
+        <v>722</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -4387,12 +4387,12 @@
         <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>84.55958696699409</v>
+        <v>84.559586966994</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>400</v>
+        <v>723</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -4412,12 +4412,12 @@
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>83.34956922044171</v>
+        <v>83.34956922044162</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>401</v>
+        <v>724</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -4437,12 +4437,12 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>79.54371917486128</v>
+        <v>79.54371917486125</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>402</v>
+        <v>725</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4462,12 +4462,12 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>74.47060596339003</v>
+        <v>74.47060596339</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>403</v>
+        <v>726</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -4487,12 +4487,12 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>88.64728964542914</v>
+        <v>88.64728964542911</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>404</v>
+        <v>727</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4512,12 +4512,12 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>79.0811301886242</v>
+        <v>79.08113018862417</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>405</v>
+        <v>728</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -4537,12 +4537,12 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>54.56419703885953</v>
+        <v>54.5641970388595</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>406</v>
+        <v>729</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -4562,12 +4562,12 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>37.21515725948956</v>
+        <v>37.21515725948953</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>407</v>
+        <v>730</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -4587,12 +4587,12 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>27.35125928602754</v>
+        <v>27.35125928602753</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>408</v>
+        <v>731</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -4612,12 +4612,12 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>23.52980838864674</v>
+        <v>23.52980838864671</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>409</v>
+        <v>732</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -4637,12 +4637,12 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>40.46217334126383</v>
+        <v>40.46217334126381</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>410</v>
+        <v>733</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -4662,12 +4662,12 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>33.01294463477701</v>
+        <v>33.012944634777</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>411</v>
+        <v>734</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -4687,12 +4687,12 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>8.724799829919377</v>
+        <v>8.724799829919348</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>412</v>
+        <v>735</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -4712,12 +4712,12 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>0.408746217357205</v>
+        <v>0.4087462173571765</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>413</v>
+        <v>736</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -4737,12 +4737,12 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>20.62944139853364</v>
+        <v>20.62944139853363</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>414</v>
+        <v>737</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -4762,12 +4762,12 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>20.61234134377449</v>
+        <v>20.61234134377447</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>415</v>
+        <v>738</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -4787,7 +4787,382 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>25.83082103940981</v>
+        <v>25.8308210394098</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2021-09-16</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>40.51</v>
+      </c>
+      <c r="D175" t="b">
+        <v>0</v>
+      </c>
+      <c r="E175" t="b">
+        <v>0</v>
+      </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>5.823040547319309</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2021-09-17</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>39.88</v>
+      </c>
+      <c r="D176" t="b">
+        <v>0</v>
+      </c>
+      <c r="E176" t="b">
+        <v>0</v>
+      </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>6.254189559506024</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2021-09-22</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>39.87</v>
+      </c>
+      <c r="D177" t="b">
+        <v>0</v>
+      </c>
+      <c r="E177" t="b">
+        <v>0</v>
+      </c>
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>7.524713431784342</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2021-09-23</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>40.17</v>
+      </c>
+      <c r="D178" t="b">
+        <v>0</v>
+      </c>
+      <c r="E178" t="b">
+        <v>0</v>
+      </c>
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>17.43581467611497</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2021-09-24</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>41.13</v>
+      </c>
+      <c r="D179" t="b">
+        <v>0</v>
+      </c>
+      <c r="E179" t="b">
+        <v>0</v>
+      </c>
+      <c r="F179" t="b">
+        <v>0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>48.98935191550795</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2021-09-27</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="D180" t="b">
+        <v>0</v>
+      </c>
+      <c r="E180" t="b">
+        <v>0</v>
+      </c>
+      <c r="F180" t="b">
+        <v>0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>41.71470389646137</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2021-09-28</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>40.12</v>
+      </c>
+      <c r="D181" t="b">
+        <v>0</v>
+      </c>
+      <c r="E181" t="b">
+        <v>0</v>
+      </c>
+      <c r="F181" t="b">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>37.71672219662903</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2021-09-29</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>37.55</v>
+      </c>
+      <c r="D182" t="b">
+        <v>0</v>
+      </c>
+      <c r="E182" t="b">
+        <v>0</v>
+      </c>
+      <c r="F182" t="b">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>13.32786431142837</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2021-09-30</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="D183" t="b">
+        <v>0</v>
+      </c>
+      <c r="E183" t="b">
+        <v>0</v>
+      </c>
+      <c r="F183" t="b">
+        <v>0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>5.576352674479516</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>37.96</v>
+      </c>
+      <c r="D184" t="b">
+        <v>0</v>
+      </c>
+      <c r="E184" t="b">
+        <v>0</v>
+      </c>
+      <c r="F184" t="b">
+        <v>0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>5.634665772806436</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2021-10-11</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="D185" t="b">
+        <v>0</v>
+      </c>
+      <c r="E185" t="b">
+        <v>0</v>
+      </c>
+      <c r="F185" t="b">
+        <v>0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>10.55343424956546</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2021-10-12</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>36.94</v>
+      </c>
+      <c r="D186" t="b">
+        <v>0</v>
+      </c>
+      <c r="E186" t="b">
+        <v>0</v>
+      </c>
+      <c r="F186" t="b">
+        <v>0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>4.513731982137038</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2021-10-13</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="D187" t="b">
+        <v>0</v>
+      </c>
+      <c r="E187" t="b">
+        <v>0</v>
+      </c>
+      <c r="F187" t="b">
+        <v>0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>9.733464024393747</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2021-10-14</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>38.54</v>
+      </c>
+      <c r="D188" t="b">
+        <v>0</v>
+      </c>
+      <c r="E188" t="b">
+        <v>0</v>
+      </c>
+      <c r="F188" t="b">
+        <v>0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>32.25407147739833</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2021-10-15</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>39.13</v>
+      </c>
+      <c r="D189" t="b">
+        <v>0</v>
+      </c>
+      <c r="E189" t="b">
+        <v>0</v>
+      </c>
+      <c r="F189" t="b">
+        <v>0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>60.17533840795746</v>
       </c>
     </row>
   </sheetData>
